--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H2">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I2">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J2">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>14.77233312499</v>
+        <v>7.630336103581335</v>
       </c>
       <c r="R2">
-        <v>132.95099812491</v>
+        <v>68.67302493223201</v>
       </c>
       <c r="S2">
-        <v>0.001364219153319463</v>
+        <v>0.001121270363510692</v>
       </c>
       <c r="T2">
-        <v>0.001541289146371392</v>
+        <v>0.001234815238999731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H3">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I3">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J3">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>56.79377005629667</v>
+        <v>38.32171003678734</v>
       </c>
       <c r="R3">
-        <v>511.1439305066701</v>
+        <v>344.895390331086</v>
       </c>
       <c r="S3">
-        <v>0.005244882324576859</v>
+        <v>0.005631337487628122</v>
       </c>
       <c r="T3">
-        <v>0.00592564631657275</v>
+        <v>0.006201592026299337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H4">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I4">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J4">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>95.98316201144334</v>
+        <v>79.75265445798001</v>
       </c>
       <c r="R4">
-        <v>863.84845810299</v>
+        <v>717.77389012182</v>
       </c>
       <c r="S4">
-        <v>0.008864007256285366</v>
+        <v>0.01171957390095439</v>
       </c>
       <c r="T4">
-        <v>0.01001451866749347</v>
+        <v>0.01290635061660935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H5">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I5">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J5">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>47.73339863078002</v>
+        <v>38.970049482105</v>
       </c>
       <c r="R5">
-        <v>286.40039178468</v>
+        <v>233.82029689263</v>
       </c>
       <c r="S5">
-        <v>0.004408160587374189</v>
+        <v>0.005726610329566036</v>
       </c>
       <c r="T5">
-        <v>0.003320214376724828</v>
+        <v>0.004204341749549854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7006100000000001</v>
+        <v>0.472738</v>
       </c>
       <c r="H6">
-        <v>2.10183</v>
+        <v>1.418214</v>
       </c>
       <c r="I6">
-        <v>0.04034574880304089</v>
+        <v>0.0327564895931267</v>
       </c>
       <c r="J6">
-        <v>0.04392235262467</v>
+        <v>0.03397138804734427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>221.59790631471</v>
+        <v>58.23582822686067</v>
       </c>
       <c r="R6">
-        <v>1994.38115683239</v>
+        <v>524.122454041746</v>
       </c>
       <c r="S6">
-        <v>0.02046447948148502</v>
+        <v>0.008557697511467456</v>
       </c>
       <c r="T6">
-        <v>0.02312068411750755</v>
+        <v>0.009424288415885995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J7">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>250.1859706431867</v>
+        <v>191.5196531873245</v>
       </c>
       <c r="R7">
-        <v>2251.67373578868</v>
+        <v>1723.67687868592</v>
       </c>
       <c r="S7">
-        <v>0.0231045759769574</v>
+        <v>0.02814362411218049</v>
       </c>
       <c r="T7">
-        <v>0.02610345419806503</v>
+        <v>0.03099357395444918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J8">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>961.8659671290178</v>
@@ -948,10 +948,10 @@
         <v>8656.79370416116</v>
       </c>
       <c r="S8">
-        <v>0.08882794370942965</v>
+        <v>0.1413452550412704</v>
       </c>
       <c r="T8">
-        <v>0.1003574427178361</v>
+        <v>0.1556585107081536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J9">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>1625.582116924502</v>
+        <v>2001.7729907588</v>
       </c>
       <c r="R9">
-        <v>14630.23905232052</v>
+        <v>18015.9569168292</v>
       </c>
       <c r="S9">
-        <v>0.1501218690668747</v>
+        <v>0.2941585663520804</v>
       </c>
       <c r="T9">
-        <v>0.169607065597017</v>
+        <v>0.3239463845959386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J10">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>808.4184514047736</v>
+        <v>978.1391357063002</v>
       </c>
       <c r="R10">
-        <v>4850.510708428641</v>
+        <v>5868.834814237801</v>
       </c>
       <c r="S10">
-        <v>0.0746571259916668</v>
+        <v>0.1437365811111084</v>
       </c>
       <c r="T10">
-        <v>0.05623154105421153</v>
+        <v>0.1055279954675713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>35.59684</v>
       </c>
       <c r="I11">
-        <v>0.6833003453286127</v>
+        <v>0.822180234441485</v>
       </c>
       <c r="J11">
-        <v>0.7438741281663874</v>
+        <v>0.8526739017519405</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>3753.00819543908</v>
+        <v>1461.705680284529</v>
       </c>
       <c r="R11">
-        <v>33777.07375895172</v>
+        <v>13155.35112256076</v>
       </c>
       <c r="S11">
-        <v>0.3465888305836842</v>
+        <v>0.2147962078248453</v>
       </c>
       <c r="T11">
-        <v>0.3915746245992576</v>
+        <v>0.2365474370258277</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H12">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I12">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J12">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>9.639719952095332</v>
+        <v>6.116045158986667</v>
       </c>
       <c r="R12">
-        <v>86.75747956885799</v>
+        <v>55.04440643088001</v>
       </c>
       <c r="S12">
-        <v>0.0008902243457424825</v>
+        <v>0.0008987468029679681</v>
       </c>
       <c r="T12">
-        <v>0.001005771776909773</v>
+        <v>0.0009897579427965979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H13">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I13">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J13">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>37.06090525674955</v>
+        <v>30.71651182502666</v>
       </c>
       <c r="R13">
-        <v>333.548147310746</v>
+        <v>276.44860642524</v>
       </c>
       <c r="S13">
-        <v>0.003422560022362745</v>
+        <v>0.004513761112523317</v>
       </c>
       <c r="T13">
-        <v>0.003866794130867207</v>
+        <v>0.004970844845570579</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H14">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I14">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J14">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>62.63403309946244</v>
+        <v>63.9252097932</v>
       </c>
       <c r="R14">
-        <v>563.7062978951619</v>
+        <v>575.3268881388</v>
       </c>
       <c r="S14">
-        <v>0.005784228319315653</v>
+        <v>0.009393746520376271</v>
       </c>
       <c r="T14">
-        <v>0.006534997186487651</v>
+        <v>0.01034499950426159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H15">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I15">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J15">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>31.14853904723067</v>
+        <v>31.2361839957</v>
       </c>
       <c r="R15">
-        <v>186.891234283384</v>
+        <v>187.4171039742</v>
       </c>
       <c r="S15">
-        <v>0.002876555328573394</v>
+        <v>0.004590126425375498</v>
       </c>
       <c r="T15">
-        <v>0.002166613526904861</v>
+        <v>0.003369962168768812</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4571846666666666</v>
+        <v>0.37892</v>
       </c>
       <c r="H16">
-        <v>1.371554</v>
+        <v>1.13676</v>
       </c>
       <c r="I16">
-        <v>0.02632771116303695</v>
+        <v>0.02625574638939025</v>
       </c>
       <c r="J16">
-        <v>0.02866163221182333</v>
+        <v>0.02722954016579943</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>144.604223366098</v>
+        <v>46.67854082329333</v>
       </c>
       <c r="R16">
-        <v>1301.438010294882</v>
+        <v>420.10686740964</v>
       </c>
       <c r="S16">
-        <v>0.01335414314704267</v>
+        <v>0.006859365528147194</v>
       </c>
       <c r="T16">
-        <v>0.01508745559065384</v>
+        <v>0.007553975704401849</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H17">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I17">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J17">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>89.44535851473948</v>
+        <v>24.99161124837201</v>
       </c>
       <c r="R17">
-        <v>536.6721510884369</v>
+        <v>149.949667490232</v>
       </c>
       <c r="S17">
-        <v>0.008260243675043464</v>
+        <v>0.00367249262008623</v>
       </c>
       <c r="T17">
-        <v>0.006221592716853894</v>
+        <v>0.002696257150207102</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H18">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I18">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J18">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>343.8819772819448</v>
+        <v>125.514953287931</v>
       </c>
       <c r="R18">
-        <v>2063.291863691669</v>
+        <v>753.0897197275862</v>
       </c>
       <c r="S18">
-        <v>0.03175736533423965</v>
+        <v>0.01844429857200271</v>
       </c>
       <c r="T18">
-        <v>0.02391955983900609</v>
+        <v>0.01354136741713841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H19">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I19">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J19">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>581.1707781601821</v>
+        <v>261.21357030447</v>
       </c>
       <c r="R19">
-        <v>3487.024668961093</v>
+        <v>1567.28142182682</v>
       </c>
       <c r="S19">
-        <v>0.05367089275657217</v>
+        <v>0.03838507648329528</v>
       </c>
       <c r="T19">
-        <v>0.04042476815668259</v>
+        <v>0.02818141454206687</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H20">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I20">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J20">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>289.0221143493191</v>
+        <v>127.6384570437825</v>
       </c>
       <c r="R20">
-        <v>1156.088457397276</v>
+        <v>510.5538281751301</v>
       </c>
       <c r="S20">
-        <v>0.02669107857182146</v>
+        <v>0.0187563453542044</v>
       </c>
       <c r="T20">
-        <v>0.01340243109688857</v>
+        <v>0.009180309852120717</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.2421405</v>
+        <v>1.548357</v>
       </c>
       <c r="H21">
-        <v>8.484280999999999</v>
+        <v>3.096714</v>
       </c>
       <c r="I21">
-        <v>0.2442904540332086</v>
+        <v>0.1072872076222874</v>
       </c>
       <c r="J21">
-        <v>0.1772976795691316</v>
+        <v>0.0741775733180209</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>1341.758543401945</v>
+        <v>190.739589975541</v>
       </c>
       <c r="R21">
-        <v>8050.551260411672</v>
+        <v>1144.437539853246</v>
       </c>
       <c r="S21">
-        <v>0.1239108736955319</v>
+        <v>0.02802899459269874</v>
       </c>
       <c r="T21">
-        <v>0.0933293277597004</v>
+        <v>0.0205782243564878</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H22">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I22">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J22">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>2.100104086318</v>
+        <v>2.68355765896</v>
       </c>
       <c r="R22">
-        <v>18.900936776862</v>
+        <v>24.15201893064</v>
       </c>
       <c r="S22">
-        <v>0.0001939437862847021</v>
+        <v>0.0003943461508008403</v>
       </c>
       <c r="T22">
-        <v>0.0002191168860805347</v>
+        <v>0.0004342794140434983</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H23">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I23">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J23">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>8.074068433432668</v>
+        <v>13.47758697358</v>
       </c>
       <c r="R23">
-        <v>72.666615900894</v>
+        <v>121.29828276222</v>
       </c>
       <c r="S23">
-        <v>0.0007456370438510788</v>
+        <v>0.001980518110862786</v>
       </c>
       <c r="T23">
-        <v>0.0008424176423734732</v>
+        <v>0.002181074274317968</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H24">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I24">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J24">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>13.64541599843533</v>
+        <v>28.0486788246</v>
       </c>
       <c r="R24">
-        <v>122.808743985918</v>
+        <v>252.4381094214</v>
       </c>
       <c r="S24">
-        <v>0.001260148799960799</v>
+        <v>0.004121725684782432</v>
       </c>
       <c r="T24">
-        <v>0.001423710892393321</v>
+        <v>0.004539110148787427</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H25">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I25">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J25">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>6.786003583196002</v>
+        <v>13.70560527585</v>
       </c>
       <c r="R25">
-        <v>40.71602149917601</v>
+        <v>82.23363165510001</v>
       </c>
       <c r="S25">
-        <v>0.0006266847615986696</v>
+        <v>0.002014025175453738</v>
       </c>
       <c r="T25">
-        <v>0.0004720172311993067</v>
+        <v>0.001478649609889957</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.09960200000000001</v>
+        <v>0.16626</v>
       </c>
       <c r="H26">
-        <v>0.298806</v>
+        <v>0.49878</v>
       </c>
       <c r="I26">
-        <v>0.005735740672100711</v>
+        <v>0.01152032195371061</v>
       </c>
       <c r="J26">
-        <v>0.006244207427987584</v>
+        <v>0.01194759671689489</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>31.503396561222</v>
+        <v>20.48130000338</v>
       </c>
       <c r="R26">
-        <v>283.530569050998</v>
+        <v>184.33170003042</v>
       </c>
       <c r="S26">
-        <v>0.002909326280405462</v>
+        <v>0.003009706831810811</v>
       </c>
       <c r="T26">
-        <v>0.003286944775940948</v>
+        <v>0.003314483269856042</v>
       </c>
     </row>
   </sheetData>
